--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GPS codes - 1996.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GPS codes - 1996.xlsx
@@ -664,7 +664,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:03:47</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:42:30</t>
   </si>
 </sst>
 </file>
@@ -41644,7 +41644,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:03:56&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:42:38&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GPS codes - 1996.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GPS codes - 1996.xlsx
@@ -664,7 +664,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:42:30</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:53:40</t>
   </si>
 </sst>
 </file>
@@ -41644,7 +41644,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:42:38&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:53:48&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>